--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.922811623610793</v>
+        <v>6.150175875140792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4122721008403139</v>
+        <v>0.4298620499890323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1506256377810405</v>
+        <v>0.1565802782351481</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.73890143955248</v>
+        <v>6.764836358127497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.461429209182476</v>
+        <v>0.4631796770381866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1727518880531792</v>
+        <v>0.1732014598582875</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.431822655179467</v>
+        <v>6.146544906816019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3749449783623935</v>
+        <v>0.4043607711241568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1366010034921282</v>
+        <v>0.1590358169795608</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.761688084058661</v>
+        <v>6.409621772609879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4622066294237748</v>
+        <v>0.4198786664079383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1734135751893253</v>
+        <v>0.1650425513378065</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.553433045381731</v>
+        <v>6.076403950417808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3841057279208184</v>
+        <v>0.400786655631972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1392126446571486</v>
+        <v>0.1571341728357829</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.554117108724023</v>
+        <v>6.145448072574685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3835979744009179</v>
+        <v>0.4043298407014326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1369327543595647</v>
+        <v>0.1590241001506869</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.619910144271492</v>
+        <v>6.139722819129598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3886248361948457</v>
+        <v>0.4036300198069994</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1400469948883435</v>
+        <v>0.1586212346378875</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.150175875140792</v>
+        <v>6.238447547351292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4298620499890323</v>
+        <v>0.4098115956108211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1565802782351481</v>
+        <v>0.1603779821565495</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.717170548315265</v>
+        <v>6.328976782341486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4588304548451719</v>
+        <v>0.4145096150180889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1731903931269973</v>
+        <v>0.1635826847184339</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.764836358127497</v>
+        <v>6.35462748994818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4631796770381866</v>
+        <v>0.4157264156095754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1732014598582875</v>
+        <v>0.1641154769112285</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.556874199691354</v>
+        <v>6.091618763296601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5814204975661607</v>
+        <v>0.5348687460151761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1466317807477452</v>
+        <v>0.1409736726368126</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.729144223113726</v>
+        <v>10.89289987406221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5672071322590899</v>
+        <v>0.8136716277471894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2056535521215421</v>
+        <v>0.2839836809911757</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.777667947984625</v>
+        <v>11.54115882684747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5712953722838199</v>
+        <v>0.8724774746403214</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2055372141200886</v>
+        <v>0.2966964375189891</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.389914096463112</v>
+        <v>8.433818906745774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5432610763439671</v>
+        <v>0.6064841412003724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1733014608688531</v>
+        <v>0.1920908270383936</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B30DE3CAF792E11590E303756DBFA8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0C9F28-A241-404D-8BD4-E330261A917C}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>sMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RRMSE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
+  </si>
+  <si>
+    <t>LGBMRegressor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,226 +426,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sMAPE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RRMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6.146544906816019</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6.1465449068160192</v>
+      </c>
+      <c r="C2">
         <v>0.4043607711241568</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.1590358169795608</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ARX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.409621772609879</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4198786664079383</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1650425513378065</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6.076403950417808</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.400786655631972</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D2">
+        <v>0.15903581697956079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.4096217726098788</v>
+      </c>
+      <c r="C3">
+        <v>0.41987866640793831</v>
+      </c>
+      <c r="D3">
+        <v>0.16504255133780649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6.0764039504178076</v>
+      </c>
+      <c r="C4">
+        <v>0.40078665563197202</v>
+      </c>
+      <c r="D4">
         <v>0.1571341728357829</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>6.145448072574685</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.4043298407014326</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1590241001506869</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.139722819129598</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4036300198069994</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1586212346378875</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6.238447547351292</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4098115956108211</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C5">
+        <v>0.40432984070143257</v>
+      </c>
+      <c r="D5">
+        <v>0.15902410015068691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6.1397228191295978</v>
+      </c>
+      <c r="C6">
+        <v>0.40363001980699942</v>
+      </c>
+      <c r="D6">
+        <v>0.15862123463788749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6.2384475473512921</v>
+      </c>
+      <c r="C7">
+        <v>0.40981159561082109</v>
+      </c>
+      <c r="D7">
         <v>0.1603779821565495</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ARIMAX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.328976782341486</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4145096150180889</v>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.3289767823414858</v>
+      </c>
+      <c r="C8">
+        <v>0.41450961501808892</v>
+      </c>
+      <c r="D8">
         <v>0.1635826847184339</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SARIMAX</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.35462748994818</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4157264156095754</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1641154769112285</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.091618763296601</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5348687460151761</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1409736726368126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10.89289987406221</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8136716277471894</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2839836809911757</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.54115882684747</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8724774746403214</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.2966964375189891</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.433818906745774</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6064841412003724</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1920908270383936</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6.3546274899481796</v>
+      </c>
+      <c r="C9">
+        <v>0.41572641560957541</v>
+      </c>
+      <c r="D9">
+        <v>0.16411547691122849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6.3578339812898061</v>
+      </c>
+      <c r="C10">
+        <v>0.55826164151485358</v>
+      </c>
+      <c r="D10">
+        <v>0.1443469304819732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10.657353380676041</v>
+      </c>
+      <c r="C11">
+        <v>0.79251876496772267</v>
+      </c>
+      <c r="D11">
+        <v>0.27940906101678759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11.159468707766541</v>
+      </c>
+      <c r="C12">
+        <v>0.83767124896542033</v>
+      </c>
+      <c r="D12">
+        <v>0.28864601930360417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>8.4806734021513019</v>
+      </c>
+      <c r="C13">
+        <v>0.61076337159026695</v>
+      </c>
+      <c r="D13">
+        <v>0.19272873220952019</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.74617260651886</v>
+        <v>10.70487495282116</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004998817306798</v>
+        <v>0.7967892225346405</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2811799915439823</v>
+        <v>0.2803552009356634</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.70487495282116</v>
+        <v>10.75046710641033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7967892225346405</v>
+        <v>0.800882992909322</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2803552009356634</v>
+        <v>0.281261575677424</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.75046710641033</v>
+        <v>10.76166110080792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.800882992909322</v>
+        <v>0.8018884667335966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.281261575677424</v>
+        <v>0.2814745068318188</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.76166110080792</v>
+        <v>10.75103032456681</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8018884667335966</v>
+        <v>0.8009372301438629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2814745068318188</v>
+        <v>0.2812795304664154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.146544906816019</v>
+        <v>6.145733366288664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4043607711241568</v>
+        <v>0.4043169092759336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1590358169795608</v>
+        <v>0.159028451244704</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.344673968254479</v>
+        <v>6.342054010980978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4146590519613889</v>
+        <v>0.4145098030048478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1640522706419125</v>
+        <v>0.1640103216701353</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.076403950417808</v>
+        <v>5.816222920114672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.400786655631972</v>
+        <v>0.3909859580242659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1571341728357829</v>
+        <v>0.1437258974632582</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.145448072574685</v>
+        <v>6.146552482808042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4043298407014326</v>
+        <v>0.4043710380432416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1590241001506869</v>
+        <v>0.1590347617915959</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.139722819129598</v>
+        <v>6.144124275429384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4036300198069994</v>
+        <v>0.403879334902531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1586212346378875</v>
+        <v>0.1587323062717716</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.238447547351292</v>
+        <v>6.229211480582378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4098115956108211</v>
+        <v>0.4097690553990359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1603779821565495</v>
+        <v>0.1603343270792533</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.362526612092796</v>
+        <v>6.343478682267918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4157688097692232</v>
+        <v>0.4145816386007052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1644501996725522</v>
+        <v>0.1639848613999221</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.365845384910193</v>
+        <v>6.33086181441846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4160767477327663</v>
+        <v>0.4137345201268741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1645463364839064</v>
+        <v>0.1636677327633582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.75103032456681</v>
+        <v>10.71475260012453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8009372301438629</v>
+        <v>0.7976809838151411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2812795304664154</v>
+        <v>0.2805698614771643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.03553806761514</v>
+        <v>10.985215371105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8266917360652098</v>
+        <v>0.8222754787464479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2874520342399673</v>
+        <v>0.286372467666956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.145733366288664</v>
+        <v>12.31580688133635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4043169092759336</v>
+        <v>0.4051596999253598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159028451244704</v>
+        <v>0.1592126031361474</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.342054010980978</v>
+        <v>12.69598147112709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4145098030048478</v>
+        <v>0.4148422228976623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1640103216701353</v>
+        <v>0.1640842315117833</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.816222920114672</v>
+        <v>11.64878585397068</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3909859580242659</v>
+        <v>0.3877859243566459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1437258974632582</v>
+        <v>0.15040959765041</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.146552482808042</v>
+        <v>12.29254686891707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4043710380432416</v>
+        <v>0.4043482553185523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1590347617915959</v>
+        <v>0.1590281452574816</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.144124275429384</v>
+        <v>12.84609223555251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403879334902531</v>
+        <v>0.4201929612395094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1587323062717716</v>
+        <v>0.1650567728931717</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.229211480582378</v>
+        <v>12.53710734051056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4097690553990359</v>
+        <v>0.4117863958165153</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1603343270792533</v>
+        <v>0.1611998420471485</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.343478682267918</v>
+        <v>12.70088620961402</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4145816386007052</v>
+        <v>0.4150140519698097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1639848613999221</v>
+        <v>0.1641726669793125</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.33086181441846</v>
+        <v>12.69622242018397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4137345201268741</v>
+        <v>0.4149130268759826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636677327633582</v>
+        <v>0.1640811182936915</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.357833981289806</v>
+        <v>12.71566796257961</v>
       </c>
       <c r="C10" t="n">
         <v>0.5582616415148536</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.71475260012453</v>
+        <v>21.45326125310323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7976809838151411</v>
+        <v>0.7987404706880556</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2805698614771643</v>
+        <v>0.2807827092544637</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.985215371105</v>
+        <v>21.97043074221</v>
       </c>
       <c r="C12" t="n">
         <v>0.8222754787464479</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.445687016107938</v>
+        <v>16.89137403221588</v>
       </c>
       <c r="C13" t="n">
         <v>0.608708523525723</v>

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30_Erros_test.xlsx
+++ b/Modelos em Python/30_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="12">
